--- a/projects/olaya-argueso/female-spanish-government/mujeres-gobiernos.xlsx
+++ b/projects/olaya-argueso/female-spanish-government/mujeres-gobiernos.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="360" windowWidth="22680" windowHeight="12620" tabRatio="500"/>
@@ -154,7 +154,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -190,6 +190,7 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8" hidden="1"/>
@@ -532,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -544,7 +545,7 @@
     <col min="4" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -555,7 +556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="15">
         <v>0</v>
       </c>
@@ -567,7 +568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="15">
         <v>0</v>
       </c>
@@ -579,7 +580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="15">
         <v>1</v>
       </c>
@@ -591,7 +592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="15">
         <v>1</v>
       </c>
@@ -603,7 +604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="15">
         <v>1</v>
       </c>
@@ -615,7 +616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" s="15">
         <v>1</v>
       </c>
@@ -627,7 +628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" s="15">
         <v>1</v>
       </c>
@@ -639,7 +640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" s="15">
         <v>1</v>
       </c>
@@ -651,7 +652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="27">
         <v>1</v>
       </c>
@@ -663,7 +664,7 @@
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -675,7 +676,7 @@
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -687,7 +688,7 @@
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" s="15">
         <v>2</v>
       </c>
@@ -698,8 +699,9 @@
         <f>0/17</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="29"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="15">
         <v>2</v>
       </c>
@@ -711,7 +713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" s="15">
         <v>3</v>
       </c>
@@ -723,7 +725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" s="3">
         <v>3</v>
       </c>
